--- a/java_020_bank/은행계정계_테이블명세.xlsx
+++ b/java_020_bank/은행계정계_테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050031\Documents\workspace\java\java_020_bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B5229-C608-4343-8DFD-6E14ED474777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E210CC4-DC1C-468B-8CB3-556407AC7235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="고객정보 " sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -266,6 +266,34 @@
   </si>
   <si>
     <t>aiOutput</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARY KEY </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -793,6 +821,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,12 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6407C651-9437-44D8-92CC-1C616F37BF74}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1826,18 +1854,18 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -1849,34 +1877,34 @@
       <c r="C3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1913,7 +1941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -1921,20 +1949,26 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>2</v>
       </c>
@@ -1947,8 +1981,12 @@
       <c r="E7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1968,7 +2006,9 @@
       <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -1976,7 +2016,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>4</v>
       </c>
@@ -1989,7 +2029,9 @@
       <c r="E9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -2010,7 +2052,9 @@
       <c r="E10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2031,7 +2075,9 @@
       <c r="E11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -3011,18 +3057,18 @@
       <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3034,34 +3080,34 @@
       <c r="C3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3525,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40DB877-26C3-4965-BF8A-D8C6B3B60504}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -4184,18 +4230,18 @@
       <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4207,34 +4253,34 @@
       <c r="C3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="33" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4692,12 +4738,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/java_020_bank/은행계정계_테이블명세.xlsx
+++ b/java_020_bank/은행계정계_테이블명세.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050031\Documents\workspace\java\java_020_bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E210CC4-DC1C-468B-8CB3-556407AC7235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC26EA2-56B9-4475-BB10-D027B22B8A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -205,10 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>acDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>buAddr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -294,6 +290,30 @@
   </si>
   <si>
     <t xml:space="preserve">PRIMARY KEY </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acDiv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.입출금,2.적금,3.대출계좌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1196,7 +1216,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H11"/>
+      <selection activeCell="E6" sqref="E6:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1875,7 +1895,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -1949,19 +1969,19 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1982,10 +2002,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2007,7 +2027,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2027,10 +2047,10 @@
         <v>38</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2050,10 +2070,10 @@
         <v>38</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2073,10 +2093,10 @@
         <v>38</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -2399,7 +2419,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3144,7 +3164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -3157,9 +3177,13 @@
       <c r="E6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -3170,37 +3194,47 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L7" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3212,16 +3246,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -4328,7 +4366,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4349,7 +4387,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -4370,7 +4408,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -4391,7 +4429,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -4412,7 +4450,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -4433,7 +4471,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>

--- a/java_020_bank/은행계정계_테이블명세.xlsx
+++ b/java_020_bank/은행계정계_테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050031\Documents\workspace\java\java_020_bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC26EA2-56B9-4475-BB10-D027B22B8A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971A1473-EF74-4D4B-BF00-FD991C8DEAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="2145" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="고객정보 " sheetId="6" r:id="rId1"/>
@@ -1216,7 +1216,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2419,7 +2419,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/java_020_bank/은행계정계_테이블명세.xlsx
+++ b/java_020_bank/은행계정계_테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050031\Documents\workspace\java\java_020_bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971A1473-EF74-4D4B-BF00-FD991C8DEAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5915983F-4A2B-4298-BA95-E0ED6634F8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="2145" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="2145" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="고객정보 " sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -241,30 +241,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>aiNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aiDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aiTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aiDiv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aiInput</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aiOutput</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -314,6 +290,69 @@
   </si>
   <si>
     <t>DEFAULT 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_accList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객의 입출금 내역을 저장하는 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aioDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aioTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aioDiv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aioInput</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aioOutput</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aioSEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aioREM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1215,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6407C651-9437-44D8-92CC-1C616F37BF74}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1969,19 +2008,19 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2002,10 +2041,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2027,7 +2066,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -2050,7 +2089,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2073,7 +2112,7 @@
         <v>48</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2096,7 +2135,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -2419,7 +2458,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3178,11 +3217,11 @@
         <v>46</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -3200,20 +3239,20 @@
         <v>38</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3224,16 +3263,16 @@
         <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -3255,10 +3294,10 @@
         <v>55</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -3609,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40DB877-26C3-4965-BF8A-D8C6B3B60504}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4266,7 +4305,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -4289,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -4308,7 +4347,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -4355,22 +4394,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>78</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -4380,17 +4423,21 @@
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -4402,16 +4449,20 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -4423,16 +4474,20 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -4444,37 +4499,45 @@
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -4485,11 +4548,21 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -4500,10 +4573,18 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
